--- a/todo.xlsx
+++ b/todo.xlsx
@@ -369,6 +369,22 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -377,17 +393,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.21"/>
@@ -1829,11 +1845,11 @@
         <v>25</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G60" s="3" t="n">
         <f aca="false">E60-F60</f>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,14 +1866,14 @@
         <v>11</v>
       </c>
       <c r="E61" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="F61" s="3" t="n">
         <v>25</v>
-      </c>
-      <c r="F61" s="3" t="n">
-        <v>0</v>
       </c>
       <c r="G61" s="3" t="n">
         <f aca="false">E61-F61</f>
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,11 +1917,11 @@
         <v>45</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G63" s="3" t="n">
         <f aca="false">E63-F63</f>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,15 +1939,15 @@
       </c>
       <c r="E64" s="7" t="n">
         <f aca="false">SUM(E2:E63)</f>
-        <v>1315</v>
+        <v>1375</v>
       </c>
       <c r="F64" s="8" t="n">
         <f aca="false">SUM(F2:F63)</f>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G64" s="7" t="n">
         <f aca="false">E64-F64</f>
-        <v>1295</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,18 +1969,18 @@
       </c>
       <c r="F65" s="9" t="n">
         <f aca="false">F64/E64</f>
-        <v>0.0152091254752852</v>
+        <v>0.08</v>
       </c>
       <c r="G65" s="9" t="n">
         <f aca="false">G64/E64</f>
-        <v>0.984790874524715</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G64"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$A$1:$G$64</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuille1!$A$1:$G$65</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -399,11 +399,11 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.21"/>
@@ -597,11 +597,11 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3" t="n">
         <f aca="false">E8-F8</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,11 +1943,11 @@
       </c>
       <c r="F64" s="8" t="n">
         <f aca="false">SUM(F2:F63)</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G64" s="7" t="n">
         <f aca="false">E64-F64</f>
-        <v>1265</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,15 +1969,15 @@
       </c>
       <c r="F65" s="9" t="n">
         <f aca="false">F64/E64</f>
-        <v>0.08</v>
+        <v>0.0872727272727273</v>
       </c>
       <c r="G65" s="9" t="n">
         <f aca="false">G64/E64</f>
-        <v>0.92</v>
+        <v>0.912727272727273</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G64"/>
+  <autoFilter ref="A1:G65"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
